--- a/Developer Notes/Syns Scenario evaluations.xlsx
+++ b/Developer Notes/Syns Scenario evaluations.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
